--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail13 Features.xlsx
@@ -3533,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3544,29 +3544,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3587,115 +3585,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3712,72 +3700,66 @@
         <v>2.075512083864474e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1309421456161578</v>
+        <v>8.237714008719824e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.279375994383255</v>
+        <v>9.236435048258068e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.237714008719824e-07</v>
+        <v>-0.02004392442880318</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>9.236435048258068e-06</v>
+        <v>0.2315648736860855</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02004392442880318</v>
+        <v>0.05397182466338653</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2315648736860855</v>
+        <v>1.55895922214715</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05397182466338653</v>
+        <v>1.582226200876887</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.457636941592006</v>
+        <v>3.617941658187097</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.582226200876887</v>
+        <v>4.547819033062379e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.617941658187097</v>
+        <v>14258061.22178679</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.547819033062379e-14</v>
+        <v>7.569321092173162e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>14258061.22178679</v>
+        <v>9.245366358028468</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.569321092173162e-06</v>
+        <v>0.0001084225634989004</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9.245366358028468</v>
+        <v>6.985801180374176</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001084225634989004</v>
+        <v>1.35146518298637</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.985801180374176</v>
+        <v>0.005291174856222502</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.35146518298637</v>
+        <v>3.18261404780591</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005291174856222502</v>
+        <v>0.9427077227005247</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.18261404780591</v>
+        <v>1.840630149084254</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9427077227005247</v>
+        <v>13</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.840630149084254</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2280797596718412</v>
       </c>
     </row>
@@ -3792,72 +3774,66 @@
         <v>2.037136660459496e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1879825970432924</v>
+        <v>6.836144120067152e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.341787221013293</v>
+        <v>9.233859571187321e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.836144120067152e-07</v>
+        <v>-0.0057218910714943</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>9.233859571187321e-06</v>
+        <v>0.2202549950427215</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0057218910714943</v>
+        <v>0.04852492434817338</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2202549950427215</v>
+        <v>1.567978438670015</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04852492434817338</v>
+        <v>1.586831976780189</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.471562082179145</v>
+        <v>3.494371508506052</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.586831976780189</v>
+        <v>4.875151789289999e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.494371508506052</v>
+        <v>13577372.89172058</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.875151789289999e-14</v>
+        <v>8.019515003690031e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>13577372.89172058</v>
+        <v>8.987101229789994</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.019515003690031e-06</v>
+        <v>0.0001240303849812992</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.987101229789994</v>
+        <v>8.013139005147474</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001240303849812992</v>
+        <v>1.247847591052363</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.013139005147474</v>
+        <v>0.007964040224464591</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.247847591052363</v>
+        <v>2.893919936201693</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007964040224464591</v>
+        <v>0.9429479522070139</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.893919936201693</v>
+        <v>1.819274141964524</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9429479522070139</v>
+        <v>13</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.819274141964524</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2177309635760017</v>
       </c>
     </row>
@@ -3872,72 +3848,66 @@
         <v>2.036671858152544e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1887812991415338</v>
+        <v>6.671053264029327e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.3426591515899</v>
+        <v>9.233832300738145e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.671053264029327e-07</v>
+        <v>0.004616982840261265</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9.233832300738145e-06</v>
+        <v>0.2178672528235555</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.004616982840261265</v>
+        <v>0.0474803422872745</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2178672528235555</v>
+        <v>1.516932024200066</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0474803422872745</v>
+        <v>1.600600840793232</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.420706379922983</v>
+        <v>3.590013253448427</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.600600840793232</v>
+        <v>4.618853522300218e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.590013253448427</v>
+        <v>14873034.61726938</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.618853522300218e-14</v>
+        <v>7.111751351305266e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>14873034.61726938</v>
+        <v>10.21723464241887</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.111751351305266e-06</v>
+        <v>0.0001243868327872673</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10.21723464241887</v>
+        <v>7.986349995319926</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001243868327872673</v>
+        <v>1.231523235346707</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.986349995319926</v>
+        <v>0.00793361438087168</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.231523235346707</v>
+        <v>2.879770833741668</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00793361438087168</v>
+        <v>0.9417362417248697</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.879770833741668</v>
+        <v>1.836436385317758</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9417362417248697</v>
+        <v>14</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.836436385317758</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2179806221579892</v>
       </c>
     </row>
@@ -3952,72 +3922,66 @@
         <v>2.056961558227365e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1674198641921808</v>
+        <v>6.889611730633693e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.33411641026397</v>
+        <v>9.235399158945901e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.889611730633693e-07</v>
+        <v>0.009949520212190484</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>9.235399158945901e-06</v>
+        <v>0.2142310657721057</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.009949520212190484</v>
+        <v>0.04599170940993511</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2142310657721057</v>
+        <v>1.537290110822295</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04599170940993511</v>
+        <v>1.639017750484605</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.441403405002777</v>
+        <v>3.356243485407844</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.639017750484605</v>
+        <v>5.462112290517387e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.356243485407844</v>
+        <v>12566292.03609447</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.462112290517387e-14</v>
+        <v>8.479284628294339e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>12566292.03609447</v>
+        <v>8.625314130058712</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.479284628294339e-06</v>
+        <v>0.000123962266049499</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.625314130058712</v>
+        <v>8.022731426583881</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000123962266049499</v>
+        <v>1.601238697743349</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.022731426583881</v>
+        <v>0.007978734507069712</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.601238697743349</v>
+        <v>3.042296263038592</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007978734507069712</v>
+        <v>0.9411943854679971</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.042296263038592</v>
+        <v>1.871679915542408</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9411943854679971</v>
+        <v>13</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.871679915542408</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2299557822873611</v>
       </c>
     </row>
@@ -4394,7 +4358,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.48981691605902</v>
+        <v>1.449801849605734</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.364030505257</v>
@@ -4483,7 +4447,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.501086927963141</v>
+        <v>1.458222009006904</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.271931184767507</v>
@@ -4572,7 +4536,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.499728404915691</v>
+        <v>1.458466854362816</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.302121875492297</v>
@@ -4661,7 +4625,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.50630899027359</v>
+        <v>1.46268184904066</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.277395344924047</v>
@@ -4750,7 +4714,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.489757885041618</v>
+        <v>1.44904590844448</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.454437222574449</v>
@@ -4839,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.485069289213032</v>
+        <v>1.443801693377788</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.397225468492977</v>
@@ -4928,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.498631559657587</v>
+        <v>1.453501823876669</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.266612922572607</v>
@@ -5017,7 +4981,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.483999758104752</v>
+        <v>1.441318610884851</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.292659153398831</v>
@@ -5106,7 +5070,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.485613603894163</v>
+        <v>1.442708470636973</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.375887335215413</v>
@@ -5195,7 +5159,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.505298846884108</v>
+        <v>1.466621624496342</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.098982941879605</v>
@@ -5284,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.480315505437557</v>
+        <v>1.450516850138731</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.412606226502361</v>
@@ -5373,7 +5337,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.474454052702813</v>
+        <v>1.452748643668939</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.434725135572551</v>
@@ -5462,7 +5426,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.462489433737542</v>
+        <v>1.438864307794929</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.449868112702669</v>
@@ -5551,7 +5515,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.457193380161784</v>
+        <v>1.433887231940963</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.364249960084685</v>
@@ -5640,7 +5604,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.456621631016061</v>
+        <v>1.429611116299989</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.478448999417219</v>
@@ -5729,7 +5693,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.458950846710773</v>
+        <v>1.427780473789505</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.279228613437863</v>
@@ -5818,7 +5782,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466205754795169</v>
+        <v>1.435420090482564</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.422676533352063</v>
@@ -5907,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.472437935499405</v>
+        <v>1.43553951309428</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.352227901106593</v>
@@ -5996,7 +5960,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.467858833858357</v>
+        <v>1.428184401005255</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.43248618865785</v>
@@ -6085,7 +6049,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.49393194233101</v>
+        <v>1.448801569714184</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.26545103582743</v>
@@ -6174,7 +6138,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.493840740496801</v>
+        <v>1.446672715689994</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.437507382882155</v>
@@ -6263,7 +6227,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.513904941440523</v>
+        <v>1.461163357752855</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.463488074743321</v>
@@ -6352,7 +6316,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.501010205849865</v>
+        <v>1.448108897383456</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.407552658372083</v>
@@ -6441,7 +6405,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.48115921530901</v>
+        <v>1.432588483576709</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.494777763345919</v>
@@ -6530,7 +6494,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.458455760216874</v>
+        <v>1.412497065807741</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.631310310707031</v>
@@ -6619,7 +6583,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.461556892591566</v>
+        <v>1.402139483887975</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.381522979505284</v>
@@ -6708,7 +6672,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.462550796960195</v>
+        <v>1.404427798955362</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.447692809282414</v>
@@ -6797,7 +6761,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.461795889349089</v>
+        <v>1.402617229462403</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.488648837517662</v>
@@ -6886,7 +6850,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.460365533959054</v>
+        <v>1.404258442479869</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.483458772700317</v>
@@ -6975,7 +6939,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.451544059763491</v>
+        <v>1.395137206411184</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.499993542114935</v>
@@ -7064,7 +7028,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.456256962503456</v>
+        <v>1.401010689747437</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.551385686826781</v>
@@ -7153,7 +7117,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.446097847393875</v>
+        <v>1.386069060018682</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.560617024873031</v>
@@ -7242,7 +7206,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.441066220901415</v>
+        <v>1.385117488244723</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.554270776744613</v>
@@ -7331,7 +7295,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.434573538774156</v>
+        <v>1.379932704884704</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.495155880501477</v>
@@ -7420,7 +7384,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.427493286464469</v>
+        <v>1.373757861302701</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.536053947553369</v>
@@ -7509,7 +7473,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.429742951603006</v>
+        <v>1.376302006587276</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.465069167975074</v>
@@ -7598,7 +7562,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.417654054800902</v>
+        <v>1.365973708545498</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.544982414002342</v>
@@ -7687,7 +7651,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.424608171973426</v>
+        <v>1.373196036209444</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.41038214319407</v>
@@ -7776,7 +7740,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.42081705137526</v>
+        <v>1.369452400345422</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.312423992327557</v>
@@ -7865,7 +7829,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.434744324807084</v>
+        <v>1.379620998491655</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.348404139785546</v>
@@ -7954,7 +7918,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.463490915574134</v>
+        <v>1.410725875384947</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.333037498203023</v>
@@ -8043,7 +8007,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.458424825751257</v>
+        <v>1.406693778572758</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.384340944589693</v>
@@ -8132,7 +8096,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.462978617352627</v>
+        <v>1.411181631937727</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.415237753656132</v>
@@ -8221,7 +8185,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.43986058148289</v>
+        <v>1.391450570948662</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.317565884049048</v>
@@ -8310,7 +8274,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.444216501338664</v>
+        <v>1.398119962720127</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.543203823236538</v>
@@ -8399,7 +8363,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.436714488135772</v>
+        <v>1.387251332093153</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.37682474478273</v>
@@ -8488,7 +8452,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.4533991138482</v>
+        <v>1.406374549751779</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.347913786409465</v>
@@ -8577,7 +8541,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.457950589877461</v>
+        <v>1.409875771081442</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.509147043990912</v>
@@ -8666,7 +8630,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.448965923641606</v>
+        <v>1.401485518126895</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.2085189041538</v>
@@ -8952,7 +8916,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.523213430457097</v>
+        <v>1.49604285315255</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.799297255146403</v>
@@ -9041,7 +9005,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.510315698987847</v>
+        <v>1.4823564668018</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.685329584357975</v>
@@ -9130,7 +9094,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.502476040515113</v>
+        <v>1.474033522736929</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.819079298539104</v>
@@ -9219,7 +9183,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.501592178738282</v>
+        <v>1.476347361944426</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.803586331376682</v>
@@ -9308,7 +9272,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.506783891687269</v>
+        <v>1.482159291536817</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.537031777486905</v>
@@ -9397,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499390380355828</v>
+        <v>1.471065606891133</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.785523880194731</v>
@@ -9486,7 +9450,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.507567915264826</v>
+        <v>1.476867132010546</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.840595090750715</v>
@@ -9575,7 +9539,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.491571559083948</v>
+        <v>1.459973341979563</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.908905163423805</v>
@@ -9664,7 +9628,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.493940531125372</v>
+        <v>1.462600751580759</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.717853375822876</v>
@@ -9753,7 +9717,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.503611623899904</v>
+        <v>1.477341695424729</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.78714105282909</v>
@@ -9842,7 +9806,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.507006776060425</v>
+        <v>1.480785972829543</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.891069585857246</v>
@@ -9931,7 +9895,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.491681616230069</v>
+        <v>1.472530899879556</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.918432936506175</v>
@@ -10020,7 +9984,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.492732386605617</v>
+        <v>1.471355511405563</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.887415469288517</v>
@@ -10109,7 +10073,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.490589746948955</v>
+        <v>1.471692932653504</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.912230434904911</v>
@@ -10198,7 +10162,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.492594763072663</v>
+        <v>1.469350448268785</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.424264804768021</v>
@@ -10287,7 +10251,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.497443399642262</v>
+        <v>1.472399977372658</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.823125177945897</v>
@@ -10376,7 +10340,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.499503422170184</v>
+        <v>1.480568985605101</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.994696033018676</v>
@@ -10465,7 +10429,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.514212080249751</v>
+        <v>1.490202022273121</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.796626963691591</v>
@@ -10554,7 +10518,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.511322536650421</v>
+        <v>1.476429423765486</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.596884361493647</v>
@@ -10643,7 +10607,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.511641415846612</v>
+        <v>1.479686485106382</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.6881802969891</v>
@@ -10732,7 +10696,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.495505380155004</v>
+        <v>1.4734566036934</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.723037372497139</v>
@@ -10821,7 +10785,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.506023362978945</v>
+        <v>1.478490971709304</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.73436286890258</v>
@@ -10910,7 +10874,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485609411810756</v>
+        <v>1.457158915998257</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.287257645394242</v>
@@ -10999,7 +10963,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.459260519365351</v>
+        <v>1.429819811449287</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.533510909418629</v>
@@ -11088,7 +11052,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.446830028548165</v>
+        <v>1.419185146509283</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.468497321418061</v>
@@ -11177,7 +11141,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.443139113914521</v>
+        <v>1.412573595406711</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.559071804654745</v>
@@ -11266,7 +11230,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.451813487714575</v>
+        <v>1.418335154066077</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.600814705867212</v>
@@ -11355,7 +11319,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.438938263916545</v>
+        <v>1.406360138466284</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.538650427048228</v>
@@ -11444,7 +11408,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.441998647141511</v>
+        <v>1.403546238994469</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.614103055903842</v>
@@ -11533,7 +11497,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.441952119683198</v>
+        <v>1.398965734680849</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.553654992245001</v>
@@ -11622,7 +11586,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.4414614430463</v>
+        <v>1.400142314143632</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.461234752016707</v>
@@ -11711,7 +11675,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.433086446098441</v>
+        <v>1.385441406371303</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.581535956609237</v>
@@ -11800,7 +11764,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.42647235952129</v>
+        <v>1.381008359382981</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.535108291012014</v>
@@ -11889,7 +11853,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.426944333815732</v>
+        <v>1.387102977864561</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.456732385111884</v>
@@ -11978,7 +11942,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.423325886726897</v>
+        <v>1.381303469243403</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.485262224717937</v>
@@ -12067,7 +12031,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.429738916955241</v>
+        <v>1.382071684792924</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.603052446654387</v>
@@ -12156,7 +12120,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.420805432107395</v>
+        <v>1.37605310548346</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.550922746257634</v>
@@ -12245,7 +12209,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.43834132447012</v>
+        <v>1.394950576751876</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.48753061803519</v>
@@ -12334,7 +12298,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.449469899955273</v>
+        <v>1.410267989456756</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.406037856667292</v>
@@ -12423,7 +12387,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.456333198354177</v>
+        <v>1.418670742318205</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.564886257764038</v>
@@ -12512,7 +12476,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.464601215715423</v>
+        <v>1.43082642225927</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.258976351761247</v>
@@ -12601,7 +12565,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.464367606028571</v>
+        <v>1.429584562974231</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.426878915704964</v>
@@ -12690,7 +12654,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.477296697948748</v>
+        <v>1.439721101787801</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.517392147258995</v>
@@ -12779,7 +12743,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.467452263690722</v>
+        <v>1.436614320516638</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.516500378443845</v>
@@ -12868,7 +12832,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.466027739378526</v>
+        <v>1.439133563477972</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.56370872399275</v>
@@ -12957,7 +12921,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.467990450562381</v>
+        <v>1.436170680772843</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.641186764427201</v>
@@ -13046,7 +13010,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.489695240929508</v>
+        <v>1.461872960336456</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.803654361686553</v>
@@ -13135,7 +13099,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.489410343505077</v>
+        <v>1.45976768433489</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.811053033951074</v>
@@ -13224,7 +13188,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.496334545529958</v>
+        <v>1.456221355461781</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.328856931630282</v>
@@ -13510,7 +13474,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.566201393496338</v>
+        <v>1.508277594736688</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.897427799756478</v>
@@ -13599,7 +13563,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.579996780204645</v>
+        <v>1.511941787986836</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.994938463884853</v>
@@ -13688,7 +13652,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.567624671125378</v>
+        <v>1.507304389134004</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.125576075708435</v>
@@ -13777,7 +13741,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.572400317746054</v>
+        <v>1.514489630609695</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.777788113762448</v>
@@ -13866,7 +13830,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.554242499814823</v>
+        <v>1.499798932918479</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.836063112713652</v>
@@ -13955,7 +13919,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.537548665607245</v>
+        <v>1.483004621739917</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.742522996677114</v>
@@ -14044,7 +14008,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.540540931917414</v>
+        <v>1.485217997402369</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.741357544094751</v>
@@ -14133,7 +14097,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.539098099840074</v>
+        <v>1.483888211188223</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.831892304821341</v>
@@ -14222,7 +14186,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.537455104568561</v>
+        <v>1.480687226226899</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.734964927202274</v>
@@ -14311,7 +14275,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.528612825025665</v>
+        <v>1.474735424690312</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.57214500428649</v>
@@ -14400,7 +14364,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.537853310679839</v>
+        <v>1.480389743904331</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.017206713916219</v>
@@ -14489,7 +14453,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.539704433406164</v>
+        <v>1.487947283367736</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.856044697757447</v>
@@ -14578,7 +14542,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.542045956900371</v>
+        <v>1.492694008687128</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.614806561081219</v>
@@ -14667,7 +14631,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.547556467537196</v>
+        <v>1.498689133939413</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.80157015673828</v>
@@ -14756,7 +14720,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.542444418648912</v>
+        <v>1.496711768316832</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.504888409891342</v>
@@ -14845,7 +14809,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.539139417652499</v>
+        <v>1.49318559313214</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.845518917745864</v>
@@ -14934,7 +14898,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.537564001260893</v>
+        <v>1.491354905932775</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.776305516013084</v>
@@ -15023,7 +14987,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.541454125850212</v>
+        <v>1.489314241569178</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.779585668436448</v>
@@ -15112,7 +15076,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.551037532988786</v>
+        <v>1.494987968828723</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.983723120831852</v>
@@ -15201,7 +15165,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.570361697808325</v>
+        <v>1.509938540603515</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.2189502189149</v>
@@ -15290,7 +15254,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56914983629994</v>
+        <v>1.510007787893614</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.219713960341482</v>
@@ -15379,7 +15343,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.572766954953816</v>
+        <v>1.502450725802613</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.06436591350614</v>
@@ -15468,7 +15432,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.552484212221074</v>
+        <v>1.484861513594354</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.574117625351355</v>
@@ -15557,7 +15521,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541172872730748</v>
+        <v>1.48154318027831</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.771003881916257</v>
@@ -15646,7 +15610,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.556249450714148</v>
+        <v>1.497932425569885</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.884541772744001</v>
@@ -15735,7 +15699,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.536973649754098</v>
+        <v>1.477312782064679</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.913964633091268</v>
@@ -15824,7 +15788,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.539166588998867</v>
+        <v>1.479026821005718</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.94685323898838</v>
@@ -15913,7 +15877,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.526488090197626</v>
+        <v>1.464846934378652</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.811990770797541</v>
@@ -16002,7 +15966,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.525213051153729</v>
+        <v>1.462860743868976</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.862558544854591</v>
@@ -16091,7 +16055,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.524719018663137</v>
+        <v>1.454922452651885</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.728269904069334</v>
@@ -16180,7 +16144,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.532272899889698</v>
+        <v>1.462152625552102</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.865654023645899</v>
@@ -16269,7 +16233,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.52956154329465</v>
+        <v>1.461390329945308</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.765934638346838</v>
@@ -16358,7 +16322,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.525794221393639</v>
+        <v>1.459380502475815</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.870391972166547</v>
@@ -16447,7 +16411,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.51443064934276</v>
+        <v>1.450882190650254</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.847125261835854</v>
@@ -16536,7 +16500,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.517491649189291</v>
+        <v>1.448690512134048</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.870301523375725</v>
@@ -16625,7 +16589,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524495858025838</v>
+        <v>1.457156971651046</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.781836857969908</v>
@@ -16714,7 +16678,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.519275098519542</v>
+        <v>1.455793877506015</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.824407979028796</v>
@@ -16803,7 +16767,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.515506037442276</v>
+        <v>1.457688292608145</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.807166398588397</v>
@@ -16892,7 +16856,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51367716738774</v>
+        <v>1.458619399182835</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.781818701252974</v>
@@ -16981,7 +16945,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.50636016162479</v>
+        <v>1.452518023251328</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.616517214457579</v>
@@ -17070,7 +17034,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.520185891586888</v>
+        <v>1.466417338524026</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.746672675496891</v>
@@ -17159,7 +17123,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.515797062462742</v>
+        <v>1.462873424387617</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.664227099339522</v>
@@ -17248,7 +17212,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.526962394459598</v>
+        <v>1.471965281135945</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.902203112545834</v>
@@ -17337,7 +17301,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.51515773523713</v>
+        <v>1.464536258888134</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.762893196339557</v>
@@ -17426,7 +17390,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.516977049241439</v>
+        <v>1.470670780966743</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.806589422909835</v>
@@ -17515,7 +17479,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.510336578303843</v>
+        <v>1.46106794983686</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.625748282837787</v>
@@ -17604,7 +17568,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.522161544396867</v>
+        <v>1.47281114476866</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.680700898494029</v>
@@ -17693,7 +17657,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.52626984563863</v>
+        <v>1.48259211673627</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.763143380594965</v>
@@ -17782,7 +17746,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.535942229474435</v>
+        <v>1.482640470781644</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.650277425100025</v>
@@ -18068,7 +18032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.540036080489811</v>
+        <v>1.478158165280376</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.982120788957725</v>
@@ -18157,7 +18121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.537217379313092</v>
+        <v>1.472795714029067</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.123611664452667</v>
@@ -18246,7 +18210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.543886341633907</v>
+        <v>1.480152856114083</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.88004666831983</v>
@@ -18335,7 +18299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544474481243789</v>
+        <v>1.477768021963142</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.119475446827818</v>
@@ -18424,7 +18388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.532508639810755</v>
+        <v>1.467774813805213</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.904252180466646</v>
@@ -18513,7 +18477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.530000922902685</v>
+        <v>1.465228720471165</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.862436488053953</v>
@@ -18602,7 +18566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.53589349364533</v>
+        <v>1.470292973900264</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.950008397050094</v>
@@ -18691,7 +18655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.5334693244146</v>
+        <v>1.469446932106124</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.913799167935645</v>
@@ -18780,7 +18744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.542414827060199</v>
+        <v>1.477068838234489</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.160284565024382</v>
@@ -18869,7 +18833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.549908057448848</v>
+        <v>1.486594431263487</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.885221075410042</v>
@@ -18958,7 +18922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.559167582186166</v>
+        <v>1.496222971663658</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.798825191097621</v>
@@ -19047,7 +19011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547258758755856</v>
+        <v>1.489776447218683</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.127566176924848</v>
@@ -19136,7 +19100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.543414089637845</v>
+        <v>1.487688293437447</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.659779813955993</v>
@@ -19225,7 +19189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.537840517575052</v>
+        <v>1.485039155745689</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.851356991740908</v>
@@ -19314,7 +19278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.527729659470395</v>
+        <v>1.477943301606319</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.444226742635026</v>
@@ -19403,7 +19367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.523115204368067</v>
+        <v>1.472460366276254</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.873083719137752</v>
@@ -19492,7 +19456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.529063865351771</v>
+        <v>1.480385100677345</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.668218994872821</v>
@@ -19581,7 +19545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.520107187439816</v>
+        <v>1.472708801734956</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.864320956107243</v>
@@ -19670,7 +19634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.521351967911875</v>
+        <v>1.472861248465752</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.907045495298926</v>
@@ -19759,7 +19723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.525503698079381</v>
+        <v>1.473934875424571</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.906767270297891</v>
@@ -19848,7 +19812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.514932308273572</v>
+        <v>1.46769645553497</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.733346758597492</v>
@@ -19937,7 +19901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.520391006478175</v>
+        <v>1.468574589623549</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.088748876319563</v>
@@ -20026,7 +19990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.506852167744869</v>
+        <v>1.450807104520573</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.675292133690315</v>
@@ -20115,7 +20079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.475463925817341</v>
+        <v>1.42463730468424</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.339966109092298</v>
@@ -20204,7 +20168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.463613190351582</v>
+        <v>1.412750030862512</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.384572106139386</v>
@@ -20293,7 +20257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.445253759277597</v>
+        <v>1.392369949808804</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.301642487501035</v>
@@ -20382,7 +20346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.452101420328343</v>
+        <v>1.398294115302351</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.3744859427814</v>
@@ -20471,7 +20435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.452816193547546</v>
+        <v>1.39710802244342</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.418321143538706</v>
@@ -20560,7 +20524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.448648182168731</v>
+        <v>1.39330665647057</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.419111657321643</v>
@@ -20649,7 +20613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.444611774439694</v>
+        <v>1.38567804523003</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.380462628232717</v>
@@ -20738,7 +20702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.451715174997496</v>
+        <v>1.391817857817175</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.397481671078571</v>
@@ -20827,7 +20791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.438628819510248</v>
+        <v>1.375770282013663</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.49417826846282</v>
@@ -20916,7 +20880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.441842941063264</v>
+        <v>1.378153411181873</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.498282978509365</v>
@@ -21005,7 +20969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.441011717814972</v>
+        <v>1.375494102104307</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.405542395826367</v>
@@ -21094,7 +21058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.441798865087337</v>
+        <v>1.378754977659278</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.429981860114137</v>
@@ -21183,7 +21147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.448625256384776</v>
+        <v>1.38355209076514</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.527736319044426</v>
@@ -21272,7 +21236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.443322369046849</v>
+        <v>1.383819258046491</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.478828500751231</v>
@@ -21361,7 +21325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.448163677193832</v>
+        <v>1.394384122564354</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.337564729331524</v>
@@ -21450,7 +21414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.454891941713973</v>
+        <v>1.404502173556061</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.575485623844318</v>
@@ -21539,7 +21503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.468885579915394</v>
+        <v>1.418483856211901</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.565816939165706</v>
@@ -21628,7 +21592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.484632163557849</v>
+        <v>1.434010022038343</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.450412230835914</v>
@@ -21717,7 +21681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.480009969417243</v>
+        <v>1.43001737969163</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.507858356775205</v>
@@ -21806,7 +21770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.482116901160753</v>
+        <v>1.433446546585368</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.522734077476424</v>
@@ -21895,7 +21859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.48733930314206</v>
+        <v>1.438479912083567</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.303186627670707</v>
@@ -21984,7 +21948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.49639462305693</v>
+        <v>1.448937612342559</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.614582906413534</v>
@@ -22073,7 +22037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.492941383286134</v>
+        <v>1.443091230534858</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.547547450175836</v>
@@ -22162,7 +22126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.515405844481286</v>
+        <v>1.465358781100301</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.935501732585627</v>
@@ -22251,7 +22215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.510681892506716</v>
+        <v>1.458863223141993</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.840585400341261</v>
@@ -22340,7 +22304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.508080386088666</v>
+        <v>1.455882285702458</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.850743142121786</v>
@@ -22626,7 +22590,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.584745559188415</v>
+        <v>1.577597779005395</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.066088336426175</v>
@@ -22715,7 +22679,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.595431247303978</v>
+        <v>1.575000627122562</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.538343187874624</v>
@@ -22804,7 +22768,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.583470929116708</v>
+        <v>1.562670473601247</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.857400056426839</v>
@@ -22893,7 +22857,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.567275731672878</v>
+        <v>1.543825189203127</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.031136079914547</v>
@@ -22982,7 +22946,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.549535472453699</v>
+        <v>1.53985797324144</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.945530817408777</v>
@@ -23071,7 +23035,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.556041525304867</v>
+        <v>1.543855425389902</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.898316895239761</v>
@@ -23160,7 +23124,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.547881291977758</v>
+        <v>1.538018465081168</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.777320087191226</v>
@@ -23249,7 +23213,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.546661536219804</v>
+        <v>1.537436882378482</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.784794628105199</v>
@@ -23338,7 +23302,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.551457218341674</v>
+        <v>1.54171347362693</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.792137495959429</v>
@@ -23427,7 +23391,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564122404761837</v>
+        <v>1.56332269253338</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.165402880137921</v>
@@ -23516,7 +23480,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.561421045779379</v>
+        <v>1.564149156297991</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.970440968855351</v>
@@ -23605,7 +23569,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.568075056797805</v>
+        <v>1.566263357051601</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.986978785328846</v>
@@ -23694,7 +23658,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.563579989165577</v>
+        <v>1.562779760444426</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.179864962314297</v>
@@ -23783,7 +23747,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.572566461803015</v>
+        <v>1.571172462101371</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.26138842742491</v>
@@ -23872,7 +23836,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.579679638454147</v>
+        <v>1.574207703755149</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.950786859900401</v>
@@ -23961,7 +23925,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.581737025688882</v>
+        <v>1.575680309354789</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.819466213226185</v>
@@ -24050,7 +24014,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.568848197963328</v>
+        <v>1.565846908149067</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.197344876912262</v>
@@ -24139,7 +24103,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.574278851321173</v>
+        <v>1.57177730762531</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.936070156191653</v>
@@ -24228,7 +24192,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596572584673231</v>
+        <v>1.590696967141388</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.572936703951705</v>
@@ -24317,7 +24281,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.599902833673663</v>
+        <v>1.590135015187536</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.333991462905906</v>
@@ -24406,7 +24370,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.586172098974618</v>
+        <v>1.575378955417488</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.97344705762454</v>
@@ -24495,7 +24459,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.600686625616262</v>
+        <v>1.583116370692471</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.26214459625934</v>
@@ -24584,7 +24548,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589891164576235</v>
+        <v>1.573510038954811</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.922856238106236</v>
@@ -24673,7 +24637,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.56450102356329</v>
+        <v>1.550456453548811</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.757322202675135</v>
@@ -24762,7 +24726,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.557902534287203</v>
+        <v>1.537971683362907</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.483744392820029</v>
@@ -24851,7 +24815,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.546348410872713</v>
+        <v>1.521224030655021</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.923554850614265</v>
@@ -24940,7 +24904,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.550651677642248</v>
+        <v>1.526225585304966</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.76709749419894</v>
@@ -25029,7 +24993,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.540319786785892</v>
+        <v>1.513957417744776</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.934226821851504</v>
@@ -25118,7 +25082,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.53337368672362</v>
+        <v>1.506563214002351</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.890337711762665</v>
@@ -25207,7 +25171,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.526768480487364</v>
+        <v>1.493603147963964</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.861577695531784</v>
@@ -25296,7 +25260,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.528743069672961</v>
+        <v>1.496950206463765</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.629109110710204</v>
@@ -25385,7 +25349,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.527153820119223</v>
+        <v>1.495209920327895</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.76443361924151</v>
@@ -25474,7 +25438,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.536351608186707</v>
+        <v>1.50221202360318</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.766636397091613</v>
@@ -25563,7 +25527,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535359947570138</v>
+        <v>1.501495180585093</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.960648066031817</v>
@@ -25652,7 +25616,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532610240253559</v>
+        <v>1.500882622200524</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.689431703242394</v>
@@ -25741,7 +25705,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531040275385539</v>
+        <v>1.500197872580201</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.807560527478001</v>
@@ -25830,7 +25794,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.527582507878727</v>
+        <v>1.495448372444497</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.764946920542798</v>
@@ -25919,7 +25883,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.538000316544653</v>
+        <v>1.510467119837933</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.956264580461044</v>
@@ -26008,7 +25972,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.554484045082043</v>
+        <v>1.5279659863748</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.828492344048485</v>
@@ -26097,7 +26061,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.570748257804834</v>
+        <v>1.549208227978</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.038888278589108</v>
@@ -26186,7 +26150,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577953012078801</v>
+        <v>1.562404672928261</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.660940284682939</v>
@@ -26275,7 +26239,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.576229752363939</v>
+        <v>1.55600569401668</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.898469323865696</v>
@@ -26364,7 +26328,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.585305828798187</v>
+        <v>1.564651384288679</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.982303360784287</v>
@@ -26453,7 +26417,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.58647113729304</v>
+        <v>1.567820945875201</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.792947718753833</v>
@@ -26542,7 +26506,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.596376807356222</v>
+        <v>1.581415761439689</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.217416769856539</v>
@@ -26631,7 +26595,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.598571319232536</v>
+        <v>1.578716040106704</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.001762661986179</v>
@@ -26720,7 +26684,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607893967950176</v>
+        <v>1.589562649448134</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.439276835675895</v>
@@ -26809,7 +26773,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.594866752390004</v>
+        <v>1.581657455586881</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.190477600662648</v>
@@ -26898,7 +26862,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585316131036239</v>
+        <v>1.571772282549344</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.997784365678365</v>
@@ -27184,7 +27148,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.484664806085615</v>
+        <v>1.442645263712443</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.216094094848246</v>
@@ -27273,7 +27237,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509495069888596</v>
+        <v>1.464937121487521</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.307364368463332</v>
@@ -27362,7 +27326,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.511138720012324</v>
+        <v>1.467378802841444</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.362517328767847</v>
@@ -27451,7 +27415,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.524324671747173</v>
+        <v>1.480723702614801</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.307475998173627</v>
@@ -27540,7 +27504,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.492360722015082</v>
+        <v>1.452024465759455</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.405886551278897</v>
@@ -27629,7 +27593,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.489753709360853</v>
+        <v>1.449385088212581</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.49879132982534</v>
@@ -27718,7 +27682,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.508955465136621</v>
+        <v>1.465543949659078</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.277374970103819</v>
@@ -27807,7 +27771,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.497833091047762</v>
+        <v>1.457255856177844</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.304031858379502</v>
@@ -27896,7 +27860,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.501552537887707</v>
+        <v>1.457508051083981</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.329360518336126</v>
@@ -27985,7 +27949,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.515913196881532</v>
+        <v>1.471777754228592</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.122508682949501</v>
@@ -28074,7 +28038,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.509043601938099</v>
+        <v>1.470474540056944</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.241760519425102</v>
@@ -28163,7 +28127,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.504365191986786</v>
+        <v>1.471732214795133</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.238744288361821</v>
@@ -28252,7 +28216,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.491434563631621</v>
+        <v>1.462888523005466</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.265869481951166</v>
@@ -28341,7 +28305,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.493440959966775</v>
+        <v>1.462957459061226</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.21728073569939</v>
@@ -28430,7 +28394,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.479269891271227</v>
+        <v>1.44462562858239</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.355779769214188</v>
@@ -28519,7 +28483,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.477172675949777</v>
+        <v>1.439255620722443</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.09961747249899</v>
@@ -28608,7 +28572,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466816287762438</v>
+        <v>1.429646886322239</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.28111020259947</v>
@@ -28697,7 +28661,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.464624947336254</v>
+        <v>1.424938171754951</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.231205618490408</v>
@@ -28786,7 +28750,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.456415499939089</v>
+        <v>1.40931913082535</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.182134557037</v>
@@ -28875,7 +28839,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.490309815526809</v>
+        <v>1.440485715568914</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.479978878225017</v>
@@ -28964,7 +28928,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.469511632098744</v>
+        <v>1.423632819884403</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.675640165435448</v>
@@ -29053,7 +29017,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.478538614283094</v>
+        <v>1.428837020510467</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.539807331623655</v>
@@ -29142,7 +29106,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.46530157585858</v>
+        <v>1.412943529591285</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.641257802175954</v>
@@ -29231,7 +29195,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.440695242397022</v>
+        <v>1.391359215573783</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.311448631127868</v>
@@ -29320,7 +29284,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.419820267974282</v>
+        <v>1.369464643036032</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.325258713832241</v>
@@ -29409,7 +29373,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.399315094643278</v>
+        <v>1.347041464038654</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.269303219107727</v>
@@ -29498,7 +29462,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.403957301485836</v>
+        <v>1.35264373350068</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.329018459271358</v>
@@ -29587,7 +29551,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.399089301690557</v>
+        <v>1.346418256668238</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.30453348329908</v>
@@ -29676,7 +29640,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.399933913358359</v>
+        <v>1.346242802511594</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.36938554675674</v>
@@ -29765,7 +29729,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.401344642571014</v>
+        <v>1.344138746429793</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.416430467605708</v>
@@ -29854,7 +29818,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.407847633797099</v>
+        <v>1.351081292844046</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.425536121868309</v>
@@ -29943,7 +29907,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.404085422552093</v>
+        <v>1.342436515895809</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.407181022697096</v>
@@ -30032,7 +29996,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.400153671427502</v>
+        <v>1.342355650162361</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.440736349387794</v>
@@ -30121,7 +30085,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.399805630729296</v>
+        <v>1.343250367293009</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.424199039243967</v>
@@ -30210,7 +30174,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.397631984408864</v>
+        <v>1.340557530415595</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.340480971504716</v>
@@ -30299,7 +30263,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.403863310092383</v>
+        <v>1.342504505578065</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.455058820711781</v>
@@ -30388,7 +30352,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.400673901246864</v>
+        <v>1.340947641387487</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.382572635482737</v>
@@ -30477,7 +30441,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.407500330908575</v>
+        <v>1.351189867883136</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.409005216322459</v>
@@ -30566,7 +30530,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.403264846874628</v>
+        <v>1.347021386701005</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.184269092985154</v>
@@ -30655,7 +30619,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.420968677414508</v>
+        <v>1.365603276443747</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.233330148229583</v>
@@ -30744,7 +30708,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.457405621496282</v>
+        <v>1.399047343604293</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.288342251607747</v>
@@ -30833,7 +30797,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.446112655876987</v>
+        <v>1.389508179100774</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.417201409290396</v>
@@ -30922,7 +30886,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.460942986624585</v>
+        <v>1.399825638395486</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.380692906968675</v>
@@ -31011,7 +30975,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.431911886367161</v>
+        <v>1.379681383114716</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.339377285055781</v>
@@ -31100,7 +31064,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.433791127910659</v>
+        <v>1.383133538556199</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.472053695571612</v>
@@ -31189,7 +31153,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.431083229673744</v>
+        <v>1.380100160236973</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.30002833387207</v>
@@ -31278,7 +31242,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.449840681191324</v>
+        <v>1.40231598626568</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.315417042109622</v>
@@ -31367,7 +31331,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.45234891665307</v>
+        <v>1.403477445736289</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.435389276775794</v>
@@ -31456,7 +31420,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.45164778473121</v>
+        <v>1.399109116001881</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.157822676060119</v>
